--- a/model/Output Files/Year 13.xlsx
+++ b/model/Output Files/Year 13.xlsx
@@ -1151,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,51 +1175,6 @@
           <t>Retired Capacity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Retired Capacity')</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1236,33 +1191,6 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>104</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>162</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1274,37 +1202,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>104</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>162</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1317,36 +1218,9 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>162</v>
-      </c>
-      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1529,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>71.23636363636373</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1618,31 +1492,31 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>65.65311702887472</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1698,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1713,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>8.783124171002948</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1853,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>45.23636363636374</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1942,28 +1816,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>65.65311702887472</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2022,13 +1896,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>59.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -2037,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>8.783124171002948</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2165,16 +2039,16 @@
         <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2213,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7.515999999999954</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2239,23 +2113,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
         <v>19.5</v>
       </c>
       <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>19.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -2290,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2302,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2316,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2331,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2370,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2385,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2489,73 +2363,73 @@
         <v>188.6909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>182.1252525252525</v>
+        <v>168.9939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>168.9939393939394</v>
+        <v>155.8626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>142.7313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.47</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>170.784</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>191.376</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>214.542</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>260.874</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>322.65</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>392.148</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>469.3679999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>531.1439999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>585.1979999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>629.982</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>640.4080808080809</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>608.8929292929294</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>490.7111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>392.2262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>313.4383838383839</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>260.9131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>221.5191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2563,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>168.9939393939394</v>
+        <v>182.1252525252525</v>
       </c>
       <c r="C3" t="n">
         <v>162.4282828282828</v>
@@ -2572,67 +2446,67 @@
         <v>149.2969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.968</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>276.964585858586</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>276.964585858586</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>333.5925858585859</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>405.664585858586</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>428.8305858585859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>454.570585858586</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>485.4585858585859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>464.4484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>254.3474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>254.3474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>214.9535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2640,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>155.8626262626263</v>
+        <v>168.9939393939394</v>
       </c>
       <c r="C4" t="n">
         <v>149.2969696969697</v>
@@ -2649,67 +2523,67 @@
         <v>149.2969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>201.672</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>260.874</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>343.242</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>343.242</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>343.242</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>363.834</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.8222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3185,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.884000000000048</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 13.xlsx
+++ b/model/Output Files/Year 13.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76271.06240000001</v>
+        <v>76023.24100799997</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9324.258028405267</v>
+        <v>9272.28964544585</v>
       </c>
       <c r="E2" t="n">
         <v>2370</v>
       </c>
       <c r="F2" t="n">
-        <v>16629.44770082779</v>
+        <v>16579.01275901571</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="H2" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="I2" t="n">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="J2" t="n">
-        <v>62.4</v>
+        <v>61.8</v>
       </c>
       <c r="K2" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>83.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>93.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O2" t="n">
-        <v>93.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="P2" t="n">
-        <v>83.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>71.23636363636373</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="T2" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1492,31 +1492,31 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>65.65311702887472</v>
+        <v>92.7</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>103</v>
       </c>
       <c r="N3" t="n">
-        <v>83.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>51.65717783899595</v>
       </c>
       <c r="P3" t="n">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1569,28 +1569,28 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>83.2</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>59.98312417100291</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="R4" t="n">
-        <v>8.783124171002948</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1727,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="H2" t="n">
-        <v>28.6</v>
+        <v>28.2</v>
       </c>
       <c r="I2" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="J2" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8</v>
+        <v>46.1</v>
       </c>
       <c r="L2" t="n">
-        <v>62.4</v>
+        <v>61.6</v>
       </c>
       <c r="M2" t="n">
-        <v>70.2</v>
+        <v>69.3</v>
       </c>
       <c r="N2" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O2" t="n">
-        <v>62.4</v>
+        <v>61.5</v>
       </c>
       <c r="P2" t="n">
-        <v>54.6</v>
+        <v>53.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.23636363636374</v>
+        <v>46.1</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2</v>
+        <v>17.7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1816,28 +1816,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>65.65311702887472</v>
+        <v>92.7</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>57.2</v>
+        <v>56.4</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>51.65717783899595</v>
       </c>
       <c r="P3" t="n">
-        <v>23.4</v>
+        <v>22.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1893,28 +1893,28 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>59.98312417100291</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="R4" t="n">
-        <v>8.783124171002948</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.515999999999954</v>
+        <v>1.007719999999879</v>
       </c>
       <c r="T2" t="n">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>188.6909090909091</v>
+        <v>187.8909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>168.9939393939394</v>
+        <v>168.1939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>155.8626262626263</v>
+        <v>155.0626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>142.7313131313131</v>
+        <v>141.9313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>129.6</v>
+        <v>128.8</v>
       </c>
       <c r="G2" t="n">
-        <v>142.47</v>
+        <v>141.472</v>
       </c>
       <c r="H2" t="n">
-        <v>170.784</v>
+        <v>169.39</v>
       </c>
       <c r="I2" t="n">
-        <v>191.376</v>
+        <v>189.487</v>
       </c>
       <c r="J2" t="n">
-        <v>214.542</v>
+        <v>212.059</v>
       </c>
       <c r="K2" t="n">
-        <v>260.874</v>
+        <v>257.698</v>
       </c>
       <c r="L2" t="n">
-        <v>322.65</v>
+        <v>318.682</v>
       </c>
       <c r="M2" t="n">
-        <v>392.148</v>
+        <v>387.289</v>
       </c>
       <c r="N2" t="n">
-        <v>469.3679999999999</v>
+        <v>463.519</v>
       </c>
       <c r="O2" t="n">
-        <v>531.1439999999999</v>
+        <v>524.404</v>
       </c>
       <c r="P2" t="n">
-        <v>585.1979999999999</v>
+        <v>577.6659999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>629.982</v>
+        <v>623.3049999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>648</v>
+        <v>640.828</v>
       </c>
       <c r="S2" t="n">
-        <v>640.4080808080809</v>
+        <v>639.8101010101011</v>
       </c>
       <c r="T2" t="n">
-        <v>608.8929292929294</v>
+        <v>608.0929292929294</v>
       </c>
       <c r="U2" t="n">
-        <v>490.7111111111111</v>
+        <v>489.9111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>392.2262626262627</v>
+        <v>391.4262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>313.4383838383839</v>
+        <v>312.6383838383838</v>
       </c>
       <c r="X2" t="n">
-        <v>260.9131313131313</v>
+        <v>260.1131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.5191919191919</v>
+        <v>220.7191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.1252525252525</v>
+        <v>181.3252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>162.4282828282828</v>
+        <v>161.6282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>149.2969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>149.2969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>149.2969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>129.6</v>
+        <v>128.8</v>
       </c>
       <c r="H3" t="n">
-        <v>129.6</v>
+        <v>128.8</v>
       </c>
       <c r="I3" t="n">
-        <v>129.6</v>
+        <v>128.8</v>
       </c>
       <c r="J3" t="n">
-        <v>129.6</v>
+        <v>128.8</v>
       </c>
       <c r="K3" t="n">
-        <v>211.968</v>
+        <v>128.8</v>
       </c>
       <c r="L3" t="n">
-        <v>276.964585858586</v>
+        <v>220.573</v>
       </c>
       <c r="M3" t="n">
-        <v>276.964585858586</v>
+        <v>299.377</v>
       </c>
       <c r="N3" t="n">
-        <v>333.5925858585859</v>
+        <v>355.213</v>
       </c>
       <c r="O3" t="n">
-        <v>405.664585858586</v>
+        <v>406.353606060606</v>
       </c>
       <c r="P3" t="n">
-        <v>428.8305858585859</v>
+        <v>429.024606060606</v>
       </c>
       <c r="Q3" t="n">
-        <v>454.570585858586</v>
+        <v>454.269606060606</v>
       </c>
       <c r="R3" t="n">
-        <v>485.4585858585859</v>
+        <v>484.860606060606</v>
       </c>
       <c r="S3" t="n">
-        <v>464.4484848484849</v>
+        <v>463.6484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>333.1353535353535</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>333.1353535353535</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>333.1353535353535</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>254.3474747474747</v>
+        <v>253.5474747474748</v>
       </c>
       <c r="X3" t="n">
-        <v>254.3474747474747</v>
+        <v>253.5474747474748</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.9535353535353</v>
+        <v>214.1535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168.9939393939394</v>
+        <v>168.1939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>149.2969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>149.2969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>149.2969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>149.2969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>129.6</v>
+        <v>128.8</v>
       </c>
       <c r="H4" t="n">
-        <v>129.6</v>
+        <v>128.8</v>
       </c>
       <c r="I4" t="n">
-        <v>129.6</v>
+        <v>128.8</v>
       </c>
       <c r="J4" t="n">
-        <v>129.6</v>
+        <v>128.8</v>
       </c>
       <c r="K4" t="n">
-        <v>129.6</v>
+        <v>169.588</v>
       </c>
       <c r="L4" t="n">
-        <v>201.672</v>
+        <v>240.967</v>
       </c>
       <c r="M4" t="n">
-        <v>260.874</v>
+        <v>240.967</v>
       </c>
       <c r="N4" t="n">
-        <v>343.242</v>
+        <v>240.967</v>
       </c>
       <c r="O4" t="n">
-        <v>343.242</v>
+        <v>300.3502929292929</v>
       </c>
       <c r="P4" t="n">
-        <v>343.242</v>
+        <v>341.1382929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>363.834</v>
+        <v>361.5322929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>372.5292929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>372.5292929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>241.2161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>241.2161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>241.2161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>241.2161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>241.2161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8222222222222</v>
+        <v>201.0222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.884000000000048</v>
+        <v>9.692280000000125</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 13.xlsx
+++ b/model/Output Files/Year 13.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76023.24100799997</v>
+        <v>77388.66797673708</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9272.28964544585</v>
+        <v>7066.221906540153</v>
       </c>
       <c r="E2" t="n">
-        <v>2370</v>
+        <v>750</v>
       </c>
       <c r="F2" t="n">
-        <v>16579.01275901571</v>
+        <v>17915.89665362734</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>61.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1495,28 +1495,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>51.65717783899595</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1569,28 +1569,28 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>59.98312417100291</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1727,43 +1727,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.8</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>28.2</v>
+        <v>26.5</v>
       </c>
       <c r="I2" t="n">
-        <v>20.3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.8</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>46.1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>69.3</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>17.7</v>
+        <v>66.5342720130611</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1819,25 +1819,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>56.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>51.65717783899595</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>22.9</v>
+        <v>129.2307927762477</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.5</v>
+        <v>119</v>
       </c>
       <c r="R3" t="n">
-        <v>30.9</v>
+        <v>90</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,13 +1890,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1905,16 +1905,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>59.98312417100291</v>
+        <v>125.3831241710019</v>
       </c>
       <c r="P4" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.6</v>
+        <v>60</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.007719999999879</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>31.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>187.8909090909091</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>168.1939393939394</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>155.0626262626263</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>141.9313131313131</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>141.472</v>
+        <v>170.193</v>
       </c>
       <c r="H2" t="n">
-        <v>169.39</v>
+        <v>196.428</v>
       </c>
       <c r="I2" t="n">
-        <v>189.487</v>
+        <v>196.428</v>
       </c>
       <c r="J2" t="n">
-        <v>212.059</v>
+        <v>344.928</v>
       </c>
       <c r="K2" t="n">
-        <v>257.698</v>
+        <v>344.928</v>
       </c>
       <c r="L2" t="n">
-        <v>318.682</v>
+        <v>344.928</v>
       </c>
       <c r="M2" t="n">
-        <v>387.289</v>
+        <v>493.428</v>
       </c>
       <c r="N2" t="n">
-        <v>463.519</v>
+        <v>493.428</v>
       </c>
       <c r="O2" t="n">
-        <v>524.404</v>
+        <v>493.428</v>
       </c>
       <c r="P2" t="n">
-        <v>577.6659999999999</v>
+        <v>493.428</v>
       </c>
       <c r="Q2" t="n">
-        <v>623.3049999999999</v>
+        <v>493.428</v>
       </c>
       <c r="R2" t="n">
-        <v>640.828</v>
+        <v>559.2969292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>639.8101010101011</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>608.0929292929294</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>489.9111111111111</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>391.4262626262627</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>312.6383838383838</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>260.1131313131313</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>220.7191919191919</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>181.3252525252525</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>161.6282828282828</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="J3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="L3" t="n">
-        <v>220.573</v>
+        <v>120</v>
       </c>
       <c r="M3" t="n">
-        <v>299.377</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>355.213</v>
+        <v>120</v>
       </c>
       <c r="O3" t="n">
-        <v>406.353606060606</v>
+        <v>120</v>
       </c>
       <c r="P3" t="n">
-        <v>429.024606060606</v>
+        <v>247.9384848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>454.269606060606</v>
+        <v>365.7484848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>484.860606060606</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>463.6484848484848</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>332.3353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>332.3353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>332.3353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>253.5474747474748</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>253.5474747474748</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.1535353535353</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168.1939393939394</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>128.8</v>
+        <v>149.7</v>
       </c>
       <c r="K4" t="n">
-        <v>169.588</v>
+        <v>149.7</v>
       </c>
       <c r="L4" t="n">
-        <v>240.967</v>
+        <v>149.7</v>
       </c>
       <c r="M4" t="n">
-        <v>240.967</v>
+        <v>149.7</v>
       </c>
       <c r="N4" t="n">
-        <v>240.967</v>
+        <v>149.7</v>
       </c>
       <c r="O4" t="n">
-        <v>300.3502929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="P4" t="n">
-        <v>341.1382929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="Q4" t="n">
-        <v>361.5322929292929</v>
+        <v>333.2292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>371.7292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>371.7292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.0222222222222</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3032,13 +3032,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3059,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>9.692280000000125</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>13.33079277624773</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -3347,46 +3347,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3451,16 +3451,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>84.3</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3698,19 +3698,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>51.6342720130611</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3769,22 +3769,22 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3843,22 +3843,22 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>125.3831241710019</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 13.xlsx
+++ b/model/Output Files/Year 13.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1295,6 +1296,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>139</v>
+      </c>
+      <c r="T2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-97.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>486</v>
+      </c>
+      <c r="K3" t="n">
+        <v>648</v>
+      </c>
+      <c r="L3" t="n">
+        <v>729</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>583</v>
+      </c>
+      <c r="O3" t="n">
+        <v>567</v>
+      </c>
+      <c r="P3" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>340</v>
+      </c>
+      <c r="R3" t="n">
+        <v>243</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>324</v>
+      </c>
+      <c r="L4" t="n">
+        <v>567</v>
+      </c>
+      <c r="M4" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>567</v>
+      </c>
+      <c r="P4" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>162</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/model/Output Files/Year 13.xlsx
+++ b/model/Output Files/Year 13.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673708</v>
+        <v>77388.6679767371</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7066.221906540153</v>
+        <v>10661.60663177227</v>
       </c>
       <c r="E2" t="n">
-        <v>750</v>
+        <v>1620</v>
       </c>
       <c r="F2" t="n">
-        <v>17915.89665362734</v>
+        <v>16765.99643055303</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.7</v>
+        <v>62.3</v>
       </c>
       <c r="H2" t="n">
-        <v>26.5</v>
+        <v>17.23427201306111</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="N2" t="n">
         <v>150</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>21</v>
+      </c>
+      <c r="P2" t="n">
         <v>150</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="R2" t="n">
-        <v>66.5342720130611</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>40.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>105.8307927762476</v>
       </c>
       <c r="P3" t="n">
-        <v>129.2307927762477</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>90</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>15.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>51.58312417100181</v>
       </c>
       <c r="O4" t="n">
-        <v>125.3831241710019</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>15.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,40 +2700,40 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>170.193</v>
+        <v>181.677</v>
       </c>
       <c r="H2" t="n">
-        <v>196.428</v>
+        <v>198.7389292929305</v>
       </c>
       <c r="I2" t="n">
-        <v>196.428</v>
+        <v>198.7389292929305</v>
       </c>
       <c r="J2" t="n">
-        <v>344.928</v>
+        <v>198.7389292929305</v>
       </c>
       <c r="K2" t="n">
-        <v>344.928</v>
+        <v>213.1929292929305</v>
       </c>
       <c r="L2" t="n">
-        <v>344.928</v>
+        <v>238.5369292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>493.428</v>
+        <v>267.0489292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>493.428</v>
+        <v>415.5489292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>493.428</v>
+        <v>436.3389292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>493.428</v>
+        <v>584.8389292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>493.428</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>559.2969292929305</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="S2" t="n">
         <v>599.2929292929305</v>
@@ -2783,31 +2783,31 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>120</v>
+        <v>142.968</v>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>177.42</v>
       </c>
       <c r="K3" t="n">
-        <v>120</v>
+        <v>223.356</v>
       </c>
       <c r="L3" t="n">
-        <v>120</v>
+        <v>275.034</v>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>309.288</v>
       </c>
       <c r="N3" t="n">
-        <v>120</v>
+        <v>329.484</v>
       </c>
       <c r="O3" t="n">
-        <v>120</v>
+        <v>434.2564848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>247.9384848484852</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>365.7484848484852</v>
+        <v>437.6224848484852</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>149.7</v>
+        <v>135.642</v>
       </c>
       <c r="K4" t="n">
-        <v>149.7</v>
+        <v>158.61</v>
       </c>
       <c r="L4" t="n">
-        <v>149.7</v>
+        <v>198.804</v>
       </c>
       <c r="M4" t="n">
-        <v>149.7</v>
+        <v>221.574</v>
       </c>
       <c r="N4" t="n">
-        <v>149.7</v>
+        <v>272.6412929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>273.8292929292919</v>
+        <v>312.8352929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>273.8292929292919</v>
+        <v>335.8032929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>333.2292929292918</v>
+        <v>347.2872929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3357,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>65.23079277624761</v>
       </c>
       <c r="P3" t="n">
-        <v>13.33079277624773</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -3675,40 +3675,40 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>7.034272013061109</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>89.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>4.8</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>24.2</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3776,13 +3776,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>48.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>10</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4014,28 +4014,28 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>84.3</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>28.6</v>
+        <v>53.3</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>51.6342720130611</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>22.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>95.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.2</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,22 +4168,22 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.183124171001808</v>
       </c>
       <c r="O4" t="n">
-        <v>125.3831241710019</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 13.xlsx
+++ b/model/Output Files/Year 13.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.67161670068</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10661.60708676772</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>16765.99725072773</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,50 +1245,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type 5</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1296,249 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1731,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1779,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1793,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1808,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1817,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1862,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2061,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2141,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2302,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2314,34 +2064,34 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>109.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>78.23427201306113</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>43.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2385,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>111.6307927762476</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>34.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2465,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.38322417000109</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>31.5999000010007</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2668,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2688,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2703,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2742,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2751,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2765,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2780,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2819,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2834,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313138</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>143.265</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>153.363</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>153.363</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>153.363</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>167.817</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>193.161</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>221.673</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>351.363</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>460.065</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>537.5169292929305</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>551.9709292929305</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>551.9709292929305</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>556.1289292929305</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142.968</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>177.42</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>287.9344848484851</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>339.6124848484851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>373.8664848484851</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>394.0624848484852</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>434.2564848484852</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>434.6524848484852</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>437.6224848484852</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>125.742</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>153.8413919283011</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>194.0353919283011</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>216.8053919283011</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>262.7413919283011</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>302.9353919283011</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>325.9033919283011</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>357.1872929292918</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3631,13 +3381,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3687,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>65.23079277624757</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3764,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5.183224170001083</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3922,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3943,13 +3693,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>60.43427201306113</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3958,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4035,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4106,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -4252,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4285,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4359,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 13.xlsx
+++ b/model/Output Files/Year 13.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>77388.6679767371</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10661.60663177227</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16765.99643055303</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>291.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>388.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>670.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>576.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>320.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>589.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>62.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>17.23427201306111</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2064,25 +2064,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>105.8307927762476</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>51.58312417100181</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>181.677</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>198.7389292929305</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>198.7389292929305</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>198.7389292929305</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>213.1929292929305</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>238.5369292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>267.0489292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>415.5489292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>436.3389292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>584.8389292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>142.968</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>177.42</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>223.356</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>275.034</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>309.288</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>329.484</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>434.2564848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>437.6224848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>135.642</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>158.61</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>198.804</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>221.574</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>272.6412929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>312.8352929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>335.8032929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>347.2872929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>65.23079277624761</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.034272013061109</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3693,25 +3693,25 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4017,13 +4017,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.3</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.183124171001808</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 13.xlsx
+++ b/model/Output Files/Year 13.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.6679767371</v>
+        <v>77388.66797673712</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10661.60663177227</v>
+        <v>14805.93863177228</v>
       </c>
       <c r="E2" t="n">
-        <v>1620</v>
+        <v>750</v>
       </c>
       <c r="F2" t="n">
-        <v>16765.99643055303</v>
+        <v>15922.80926328748</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.3</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>17.23427201306111</v>
+        <v>26.5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2064,34 +2064,34 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>14.6</v>
+        <v>34.53427201306115</v>
       </c>
       <c r="L2" t="n">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28.8</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
         <v>150</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>90</v>
       </c>
       <c r="M3" t="n">
-        <v>34.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>105.8307927762476</v>
+        <v>0.2307927762477434</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>150</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.8</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>51.58312417100181</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>3.383124171001853</v>
       </c>
       <c r="R4" t="n">
-        <v>15.8</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>181.677</v>
+        <v>170.193</v>
       </c>
       <c r="H2" t="n">
-        <v>198.7389292929305</v>
+        <v>196.428</v>
       </c>
       <c r="I2" t="n">
-        <v>198.7389292929305</v>
+        <v>196.428</v>
       </c>
       <c r="J2" t="n">
-        <v>198.7389292929305</v>
+        <v>196.428</v>
       </c>
       <c r="K2" t="n">
-        <v>213.1929292929305</v>
+        <v>230.6169292929305</v>
       </c>
       <c r="L2" t="n">
-        <v>238.5369292929305</v>
+        <v>230.6169292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>267.0489292929305</v>
+        <v>379.1169292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>415.5489292929305</v>
+        <v>527.6169292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>436.3389292929305</v>
+        <v>527.6169292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>584.8389292929305</v>
+        <v>527.6169292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>599.2929292929305</v>
+        <v>527.6169292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>599.2929292929305</v>
+        <v>527.6169292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,34 +2783,34 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>142.968</v>
+        <v>159.6</v>
       </c>
       <c r="J3" t="n">
-        <v>177.42</v>
+        <v>159.6</v>
       </c>
       <c r="K3" t="n">
-        <v>223.356</v>
+        <v>159.6</v>
       </c>
       <c r="L3" t="n">
-        <v>275.034</v>
+        <v>248.7</v>
       </c>
       <c r="M3" t="n">
-        <v>309.288</v>
+        <v>248.7</v>
       </c>
       <c r="N3" t="n">
-        <v>329.484</v>
+        <v>248.7</v>
       </c>
       <c r="O3" t="n">
-        <v>434.2564848484852</v>
+        <v>248.9284848484853</v>
       </c>
       <c r="P3" t="n">
-        <v>434.6524848484852</v>
+        <v>248.9284848484853</v>
       </c>
       <c r="Q3" t="n">
-        <v>437.6224848484852</v>
+        <v>248.9284848484853</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>397.4284848484853</v>
       </c>
       <c r="S3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>135.642</v>
+        <v>200.19</v>
       </c>
       <c r="K4" t="n">
-        <v>158.61</v>
+        <v>239.79</v>
       </c>
       <c r="L4" t="n">
-        <v>198.804</v>
+        <v>239.79</v>
       </c>
       <c r="M4" t="n">
-        <v>221.574</v>
+        <v>239.79</v>
       </c>
       <c r="N4" t="n">
-        <v>272.6412929292918</v>
+        <v>239.79</v>
       </c>
       <c r="O4" t="n">
-        <v>312.8352929292918</v>
+        <v>239.79</v>
       </c>
       <c r="P4" t="n">
-        <v>335.8032929292918</v>
+        <v>279.39</v>
       </c>
       <c r="Q4" t="n">
-        <v>347.2872929292918</v>
+        <v>282.7392929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3443,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65.23079277624761</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3458,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>7.034272013061109</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>31.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>39</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3693,22 +3693,22 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="P2" t="n">
-        <v>78.90000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>4.8</v>
+        <v>33.8</v>
       </c>
       <c r="S2" t="n">
-        <v>24.2</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3764,22 +3764,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3853,10 +3853,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.383124171001853</v>
       </c>
       <c r="R4" t="n">
         <v>10</v>
@@ -4008,22 +4008,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>60.53427201306115</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>173.4</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.3</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>22.4</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.2307927762477434</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>33.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,10 +4168,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
-        <v>5.183124171001808</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 13.xlsx
+++ b/model/Output Files/Year 13.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673712</v>
+        <v>80576.48655035206</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>14805.93863177228</v>
+        <v>16153.46139577595</v>
       </c>
       <c r="E2" t="n">
-        <v>750</v>
+        <v>955</v>
       </c>
       <c r="F2" t="n">
-        <v>15922.80926328748</v>
+        <v>16292.41839513308</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1404,46 +1404,46 @@
         <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>22.1</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>50.7</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>27.3</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>114.4</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>128.7</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>143</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>-41.60000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>-117</v>
@@ -1487,37 +1487,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>124.8</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>149.5</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>101.4</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>32.49999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>-62.40000000000001</v>
       </c>
       <c r="T3" t="n">
         <v>-130</v>
@@ -1567,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>107.9</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>41.6</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="H2" t="n">
         <v>50.7</v>
       </c>
-      <c r="H2" t="n">
-        <v>26.5</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="K2" t="n">
-        <v>34.53427201306115</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>99.37379859198175</v>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>107.1</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>40.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2153,19 +2153,19 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2307927762477434</v>
+        <v>8.797765534129415</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>150</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.383124171001853</v>
+        <v>40.58312417100177</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>211.8909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>192.1939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>179.0626262626278</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>165.9313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="G2" t="n">
-        <v>170.193</v>
+        <v>174.679</v>
       </c>
       <c r="H2" t="n">
-        <v>196.428</v>
+        <v>224.872</v>
       </c>
       <c r="I2" t="n">
-        <v>196.428</v>
+        <v>241.504</v>
       </c>
       <c r="J2" t="n">
-        <v>196.428</v>
+        <v>257.839</v>
       </c>
       <c r="K2" t="n">
-        <v>230.6169292929305</v>
+        <v>257.839</v>
       </c>
       <c r="L2" t="n">
-        <v>230.6169292929305</v>
+        <v>356.2190606060619</v>
       </c>
       <c r="M2" t="n">
-        <v>379.1169292929305</v>
+        <v>462.2480606060619</v>
       </c>
       <c r="N2" t="n">
-        <v>527.6169292929305</v>
+        <v>462.2480606060619</v>
       </c>
       <c r="O2" t="n">
-        <v>527.6169292929305</v>
+        <v>570.3560606060619</v>
       </c>
       <c r="P2" t="n">
-        <v>527.6169292929305</v>
+        <v>664.3070606060619</v>
       </c>
       <c r="Q2" t="n">
-        <v>527.6169292929305</v>
+        <v>744.1010606060619</v>
       </c>
       <c r="R2" t="n">
-        <v>527.6169292929305</v>
+        <v>763.4060606060618</v>
       </c>
       <c r="S2" t="n">
-        <v>567.6129292929305</v>
+        <v>721.3858585858598</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>632.0929292929304</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>513.9111111111112</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>415.4262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>336.638383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>284.1131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>244.7191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>205.3252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>185.6282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="I3" t="n">
-        <v>159.6</v>
+        <v>235.168</v>
       </c>
       <c r="J3" t="n">
-        <v>159.6</v>
+        <v>241.108</v>
       </c>
       <c r="K3" t="n">
-        <v>159.6</v>
+        <v>249.028</v>
       </c>
       <c r="L3" t="n">
-        <v>248.7</v>
+        <v>409.408</v>
       </c>
       <c r="M3" t="n">
-        <v>248.7</v>
+        <v>409.408</v>
       </c>
       <c r="N3" t="n">
-        <v>248.7</v>
+        <v>409.408</v>
       </c>
       <c r="O3" t="n">
-        <v>248.9284848484853</v>
+        <v>418.1177878787881</v>
       </c>
       <c r="P3" t="n">
-        <v>248.9284848484853</v>
+        <v>450.2927878787881</v>
       </c>
       <c r="Q3" t="n">
-        <v>248.9284848484853</v>
+        <v>488.9027878787882</v>
       </c>
       <c r="R3" t="n">
-        <v>397.4284848484853</v>
+        <v>550.6787878787882</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>487.6484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>277.5474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>277.5474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>238.1535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>192.1939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="J4" t="n">
-        <v>200.19</v>
+        <v>170.62</v>
       </c>
       <c r="K4" t="n">
-        <v>239.79</v>
+        <v>174.58</v>
       </c>
       <c r="L4" t="n">
-        <v>239.79</v>
+        <v>181.51</v>
       </c>
       <c r="M4" t="n">
-        <v>239.79</v>
+        <v>181.51</v>
       </c>
       <c r="N4" t="n">
-        <v>239.79</v>
+        <v>324.0700000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>239.79</v>
+        <v>331</v>
       </c>
       <c r="P4" t="n">
-        <v>279.39</v>
+        <v>334.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>282.7392929292918</v>
+        <v>375.1372929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>395.7292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>395.7292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>225.0222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,46 +3348,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>20.8</v>
+        <v>108.8</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>112.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3440,28 +3440,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R3" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="S3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>32.98312417100177</v>
       </c>
       <c r="R4" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,46 +3672,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>31.2</v>
+        <v>7.8</v>
       </c>
       <c r="P2" t="n">
-        <v>28.6</v>
+        <v>6.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>33.8</v>
+        <v>3.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.383124171001853</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -4008,34 +4008,34 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.53427201306115</v>
+        <v>15.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.173798591981736</v>
       </c>
       <c r="M2" t="n">
-        <v>173.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4091,25 +4091,25 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2307927762477434</v>
+        <v>1.797765534129416</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>16.3</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>2.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 13.xlsx
+++ b/model/Output Files/Year 13.xlsx
@@ -525,76 +525,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6.839893888378889</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80576.48655035206</v>
+        <v>71764.87527395159</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="D2" t="n">
-        <v>16153.46139577595</v>
+        <v>15173.56861411267</v>
       </c>
       <c r="E2" t="n">
-        <v>955</v>
+        <v>1960</v>
       </c>
       <c r="F2" t="n">
-        <v>16292.41839513308</v>
+        <v>13759.32315532045</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1279,13 +1279,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-27.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-16.5</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>14.7</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>34.9</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>11.1</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>54.2</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>80.80000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>90.89999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>74.39999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>64.30000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>54.2</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>6.5</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-41.2</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-78.8</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-99</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-82.5</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-66</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-44</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-27.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-16.5</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>-16.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>62.4</v>
       </c>
       <c r="J3" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="K3" t="n">
         <v>124.8</v>
       </c>
-      <c r="K3" t="n">
-        <v>166.4</v>
-      </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>140.4</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>106.5</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>69.8</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>109.2</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>46.8</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-56.8</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-110</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-66</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-27.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-16.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-16.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>15.6</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>62.4</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>109.2</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>75.29999999999998</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>124.8</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>109.2</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>62.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>31.2</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>15.6</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-110</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-33</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1814,34 +1814,34 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.93587389041967</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.60000000000036</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>49.33187429853691</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2052,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>25.6</v>
       </c>
       <c r="I2" t="n">
-        <v>16.8</v>
+        <v>15.3</v>
       </c>
       <c r="J2" t="n">
-        <v>16.5</v>
+        <v>15.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>36.3</v>
       </c>
       <c r="L2" t="n">
-        <v>99.37379859198175</v>
+        <v>49.40000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>107.1</v>
+        <v>54.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>46.90000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>41.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>36.13989388837889</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>12.7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>47.4</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>63.2</v>
       </c>
       <c r="L3" t="n">
-        <v>162</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>55.60000000000036</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>37.2</v>
       </c>
       <c r="O3" t="n">
-        <v>8.797765534129415</v>
+        <v>53.93587389041967</v>
       </c>
       <c r="P3" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>49.3318742985369</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>39.80000000000037</v>
       </c>
       <c r="N4" t="n">
-        <v>144</v>
+        <v>63.2</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>55.3</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40.58312417100177</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>20.5</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>9.5</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>4.000000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>4.000000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>4.000000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2412,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>41.6</v>
+        <v>13.4</v>
       </c>
       <c r="T2" t="n">
-        <v>88.40000000000001</v>
+        <v>56</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>75.5</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>27.5</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>16.49999999999818</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>11.00000000000182</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>16.49999999999818</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2489,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.4</v>
+        <v>41.40000000000073</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>66.00000000000182</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>27.5</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>16.49999999999818</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>16.49999999999818</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.8909090909106</v>
+        <v>124.7676767676767</v>
       </c>
       <c r="C2" t="n">
-        <v>192.1939393939416</v>
+        <v>115.1717171717171</v>
       </c>
       <c r="D2" t="n">
-        <v>179.0626262626278</v>
+        <v>111.1313131313131</v>
       </c>
       <c r="E2" t="n">
-        <v>165.9313131313139</v>
+        <v>107.090909090909</v>
       </c>
       <c r="F2" t="n">
-        <v>152.8</v>
+        <v>103.050505050505</v>
       </c>
       <c r="G2" t="n">
-        <v>174.679</v>
+        <v>117.900505050505</v>
       </c>
       <c r="H2" t="n">
-        <v>224.872</v>
+        <v>143.244505050505</v>
       </c>
       <c r="I2" t="n">
-        <v>241.504</v>
+        <v>158.391505050505</v>
       </c>
       <c r="J2" t="n">
-        <v>257.839</v>
+        <v>173.637505050505</v>
       </c>
       <c r="K2" t="n">
-        <v>257.839</v>
+        <v>209.574505050505</v>
       </c>
       <c r="L2" t="n">
-        <v>356.2190606060619</v>
+        <v>258.480505050505</v>
       </c>
       <c r="M2" t="n">
-        <v>462.2480606060619</v>
+        <v>312.633505050505</v>
       </c>
       <c r="N2" t="n">
-        <v>462.2480606060619</v>
+        <v>372.033505050505</v>
       </c>
       <c r="O2" t="n">
-        <v>570.3560606060619</v>
+        <v>418.464505050505</v>
       </c>
       <c r="P2" t="n">
-        <v>664.3070606060619</v>
+        <v>459.6485050505049</v>
       </c>
       <c r="Q2" t="n">
-        <v>744.1010606060619</v>
+        <v>495.427</v>
       </c>
       <c r="R2" t="n">
-        <v>763.4060606060618</v>
+        <v>508</v>
       </c>
       <c r="S2" t="n">
-        <v>721.3858585858598</v>
+        <v>494.4646464646465</v>
       </c>
       <c r="T2" t="n">
-        <v>632.0929292929304</v>
+        <v>437.8989898989899</v>
       </c>
       <c r="U2" t="n">
-        <v>513.9111111111112</v>
+        <v>344.9696969696969</v>
       </c>
       <c r="V2" t="n">
-        <v>415.4262626262645</v>
+        <v>268.7070707070707</v>
       </c>
       <c r="W2" t="n">
-        <v>336.638383838385</v>
+        <v>209.1111111111111</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1131313131332</v>
+        <v>171.7373737373737</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.7191919191934</v>
+        <v>145.4747474747474</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>205.3252525252518</v>
+        <v>146.0444444444426</v>
       </c>
       <c r="C3" t="n">
-        <v>185.6282828282828</v>
+        <v>129.3777777777778</v>
       </c>
       <c r="D3" t="n">
-        <v>172.496969696969</v>
+        <v>118.2666666666648</v>
       </c>
       <c r="E3" t="n">
-        <v>172.496969696969</v>
+        <v>118.2666666666648</v>
       </c>
       <c r="F3" t="n">
-        <v>172.496969696969</v>
+        <v>118.2666666666648</v>
       </c>
       <c r="G3" t="n">
-        <v>152.8</v>
+        <v>101.6</v>
       </c>
       <c r="H3" t="n">
-        <v>152.8</v>
+        <v>101.6</v>
       </c>
       <c r="I3" t="n">
-        <v>235.168</v>
+        <v>101.6</v>
       </c>
       <c r="J3" t="n">
-        <v>241.108</v>
+        <v>148.526</v>
       </c>
       <c r="K3" t="n">
-        <v>249.028</v>
+        <v>211.094</v>
       </c>
       <c r="L3" t="n">
-        <v>409.408</v>
+        <v>281.4830000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>409.408</v>
+        <v>336.5270000000004</v>
       </c>
       <c r="N3" t="n">
-        <v>409.408</v>
+        <v>373.3550000000005</v>
       </c>
       <c r="O3" t="n">
-        <v>418.1177878787881</v>
+        <v>426.7515151515159</v>
       </c>
       <c r="P3" t="n">
-        <v>450.2927878787881</v>
+        <v>426.7515151515159</v>
       </c>
       <c r="Q3" t="n">
-        <v>488.9027878787882</v>
+        <v>426.7515151515159</v>
       </c>
       <c r="R3" t="n">
-        <v>550.6787878787882</v>
+        <v>426.7515151515159</v>
       </c>
       <c r="S3" t="n">
-        <v>487.6484848484852</v>
+        <v>384.9333333333334</v>
       </c>
       <c r="T3" t="n">
-        <v>356.3353535353539</v>
+        <v>273.8222222222223</v>
       </c>
       <c r="U3" t="n">
-        <v>356.3353535353539</v>
+        <v>273.8222222222223</v>
       </c>
       <c r="V3" t="n">
-        <v>356.3353535353539</v>
+        <v>273.8222222222223</v>
       </c>
       <c r="W3" t="n">
-        <v>277.5474747474744</v>
+        <v>207.1555555555537</v>
       </c>
       <c r="X3" t="n">
-        <v>277.5474747474744</v>
+        <v>207.1555555555537</v>
       </c>
       <c r="Y3" t="n">
-        <v>238.1535353535346</v>
+        <v>173.8222222222204</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>192.1939393939379</v>
+        <v>134.9333333333297</v>
       </c>
       <c r="C4" t="n">
-        <v>172.496969696969</v>
+        <v>118.2666666666648</v>
       </c>
       <c r="D4" t="n">
-        <v>172.496969696969</v>
+        <v>118.2666666666648</v>
       </c>
       <c r="E4" t="n">
-        <v>172.496969696969</v>
+        <v>118.2666666666648</v>
       </c>
       <c r="F4" t="n">
-        <v>172.496969696969</v>
+        <v>118.2666666666648</v>
       </c>
       <c r="G4" t="n">
-        <v>152.8</v>
+        <v>101.6</v>
       </c>
       <c r="H4" t="n">
-        <v>152.8</v>
+        <v>101.6</v>
       </c>
       <c r="I4" t="n">
-        <v>152.8</v>
+        <v>101.6</v>
       </c>
       <c r="J4" t="n">
-        <v>170.62</v>
+        <v>101.6</v>
       </c>
       <c r="K4" t="n">
-        <v>174.58</v>
+        <v>101.6</v>
       </c>
       <c r="L4" t="n">
-        <v>181.51</v>
+        <v>150.4385555555515</v>
       </c>
       <c r="M4" t="n">
-        <v>181.51</v>
+        <v>189.8405555555519</v>
       </c>
       <c r="N4" t="n">
-        <v>324.0700000000001</v>
+        <v>252.4085555555519</v>
       </c>
       <c r="O4" t="n">
-        <v>331</v>
+        <v>307.1555555555519</v>
       </c>
       <c r="P4" t="n">
-        <v>334.96</v>
+        <v>307.1555555555519</v>
       </c>
       <c r="Q4" t="n">
-        <v>375.1372929292918</v>
+        <v>307.1555555555519</v>
       </c>
       <c r="R4" t="n">
-        <v>395.7292929292918</v>
+        <v>307.1555555555519</v>
       </c>
       <c r="S4" t="n">
-        <v>395.7292929292918</v>
+        <v>307.1555555555519</v>
       </c>
       <c r="T4" t="n">
-        <v>264.4161616161605</v>
+        <v>196.0444444444408</v>
       </c>
       <c r="U4" t="n">
-        <v>264.4161616161605</v>
+        <v>196.0444444444408</v>
       </c>
       <c r="V4" t="n">
-        <v>264.4161616161605</v>
+        <v>196.0444444444408</v>
       </c>
       <c r="W4" t="n">
-        <v>264.4161616161605</v>
+        <v>196.0444444444408</v>
       </c>
       <c r="X4" t="n">
-        <v>264.4161616161605</v>
+        <v>196.0444444444408</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.0222222222222</v>
+        <v>162.7111111111074</v>
       </c>
     </row>
   </sheetData>
@@ -3348,40 +3348,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>98.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.98312417100177</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -4008,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.173798591981736</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -4020,19 +4020,19 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4091,22 +4091,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.797765534129416</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 13.xlsx
+++ b/model/Output Files/Year 13.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.6679767371</v>
+        <v>77388.67161670068</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10661.60663177227</v>
+        <v>10661.60708676772</v>
       </c>
       <c r="E2" t="n">
         <v>1620</v>
       </c>
       <c r="F2" t="n">
-        <v>16765.99643055303</v>
+        <v>16765.99725072773</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,30 +1245,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Type 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Type 5</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1279,15 +1299,245 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2052,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.3</v>
+        <v>23.5</v>
       </c>
       <c r="H2" t="n">
-        <v>17.23427201306111</v>
+        <v>10.2</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2073,13 +2323,13 @@
         <v>28.8</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>109.8</v>
       </c>
       <c r="P2" t="n">
-        <v>150</v>
+        <v>78.23427201306113</v>
       </c>
       <c r="Q2" t="n">
         <v>14.6</v>
@@ -2088,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>43.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2141,7 +2391,7 @@
         <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>111.6307927762476</v>
       </c>
       <c r="L3" t="n">
         <v>52.2</v>
@@ -2153,7 +2403,7 @@
         <v>20.4</v>
       </c>
       <c r="O3" t="n">
-        <v>105.8307927762476</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
         <v>0.4</v>
@@ -2215,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.8</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>28.38322417000109</v>
       </c>
       <c r="L4" t="n">
         <v>40.6</v>
@@ -2227,7 +2477,7 @@
         <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>51.58312417100181</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
         <v>40.6</v>
@@ -2236,10 +2486,10 @@
         <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>31.5999000010007</v>
       </c>
       <c r="R4" t="n">
-        <v>15.8</v>
+        <v>5.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2694,49 +2944,49 @@
         <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>133.1313131313138</v>
       </c>
       <c r="F2" t="n">
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>181.677</v>
+        <v>143.265</v>
       </c>
       <c r="H2" t="n">
-        <v>198.7389292929305</v>
+        <v>153.363</v>
       </c>
       <c r="I2" t="n">
-        <v>198.7389292929305</v>
+        <v>153.363</v>
       </c>
       <c r="J2" t="n">
-        <v>198.7389292929305</v>
+        <v>153.363</v>
       </c>
       <c r="K2" t="n">
-        <v>213.1929292929305</v>
+        <v>167.817</v>
       </c>
       <c r="L2" t="n">
-        <v>238.5369292929305</v>
+        <v>193.161</v>
       </c>
       <c r="M2" t="n">
-        <v>267.0489292929305</v>
+        <v>221.673</v>
       </c>
       <c r="N2" t="n">
-        <v>415.5489292929305</v>
+        <v>351.363</v>
       </c>
       <c r="O2" t="n">
-        <v>436.3389292929305</v>
+        <v>460.065</v>
       </c>
       <c r="P2" t="n">
-        <v>584.8389292929305</v>
+        <v>537.5169292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>599.2929292929305</v>
+        <v>551.9709292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>599.2929292929305</v>
+        <v>551.9709292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>556.1289292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2789,16 +3039,16 @@
         <v>177.42</v>
       </c>
       <c r="K3" t="n">
-        <v>223.356</v>
+        <v>287.9344848484851</v>
       </c>
       <c r="L3" t="n">
-        <v>275.034</v>
+        <v>339.6124848484851</v>
       </c>
       <c r="M3" t="n">
-        <v>309.288</v>
+        <v>373.8664848484851</v>
       </c>
       <c r="N3" t="n">
-        <v>329.484</v>
+        <v>394.0624848484852</v>
       </c>
       <c r="O3" t="n">
         <v>434.2564848484852</v>
@@ -2863,28 +3113,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>135.642</v>
+        <v>125.742</v>
       </c>
       <c r="K4" t="n">
-        <v>158.61</v>
+        <v>153.8413919283011</v>
       </c>
       <c r="L4" t="n">
-        <v>198.804</v>
+        <v>194.0353919283011</v>
       </c>
       <c r="M4" t="n">
-        <v>221.574</v>
+        <v>216.8053919283011</v>
       </c>
       <c r="N4" t="n">
-        <v>272.6412929292918</v>
+        <v>262.7413919283011</v>
       </c>
       <c r="O4" t="n">
-        <v>312.8352929292918</v>
+        <v>302.9353919283011</v>
       </c>
       <c r="P4" t="n">
-        <v>335.8032929292918</v>
+        <v>325.9033919283011</v>
       </c>
       <c r="Q4" t="n">
-        <v>347.2872929292918</v>
+        <v>357.1872929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3381,13 +3631,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3437,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>65.23079277624757</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3449,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65.23079277624761</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3514,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.183224170001083</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3675,13 +3925,13 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>7.034272013061109</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3696,19 +3946,19 @@
         <v>99</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="P2" t="n">
-        <v>78.90000000000001</v>
+        <v>60.43427201306113</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>24.2</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3835,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3856,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,16 +4246,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4017,13 +4267,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.3</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -4035,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>22.4</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4171,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.183124171001808</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 13.xlsx
+++ b/model/Output Files/Year 13.xlsx
@@ -15,12 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 5" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -525,22 +523,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>67.73400000000279</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>115.7579999984714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -564,37 +562,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>122.3999999954217</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>122.3999999971782</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>122.399999994018</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="3">
@@ -617,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.570232027210296e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -665,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.921762304846198e-09</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -685,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.977298325073207e-08</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -706,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.970287730455791e-09</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -730,25 +728,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>61.20999999999185</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>91.73400000001448</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>61.20999999999185</v>
       </c>
     </row>
   </sheetData>
@@ -757,396 +755,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>80576.48655034826</v>
-      </c>
-      <c r="C2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16153.46139576548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>955</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16292.41839513479</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1203,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>11211</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +824,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>191</v>
+        <v>5202</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1230,13 +838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,49 +904,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -1346,49 +954,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>487</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
@@ -1396,149 +1004,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,76 +1147,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-1211.51</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-996.17</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>-866.895</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>-775.78</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>-566.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>-390.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>-468.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>-559.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>-699.625</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>-920.71</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>-1118.445</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>-1156.31</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>-1141.46</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-1064.46</v>
       </c>
     </row>
     <row r="3">
@@ -1716,76 +1224,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-811</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-620.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-335.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>27.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>193.87</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>379.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>534.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>483.6749999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>452.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>367.57</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>149.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>-161.885</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>-461.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>-820.285</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>-932.5600000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-1173</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-906</v>
       </c>
     </row>
     <row r="4">
@@ -1793,76 +1301,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-861.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-428.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-144.71</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.98000000000013</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>278.04</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>230.71</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>187.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>79.84499999999994</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>-180.765</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>-573.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>-991.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>-1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>-1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -1978,34 +1486,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>751.1370000000293</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2107.668000000117</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3475.409999990102</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4327.445999999883</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4450.767</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3923.85</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2948.493000000117</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1771.338000000059</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>706.2930000000283</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>22.42200000000091</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -2049,46 +1557,46 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>336.3300000000146</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>646.8</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3293.264953680773</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5958</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4473.188999954966</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>661.4490000242547</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.84400000000183</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2129,37 +1637,37 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>504.4950000000147</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2970.914999999714</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5381.279999998733</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6026.040000000217</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>850.9200000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>978.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>980.2800000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>939.120000003223</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2663.998454542237</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3946.272</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1018.26</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -2290,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.396983861923218e-09</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2305,34 +1813,34 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1282.848000000117</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2662.289999990102</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3495.005999999637</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3497.367</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4000000006519</v>
+        <v>3020.953454545283</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7000000006752</v>
+        <v>2048.013000000117</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>808.0680000000585</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2000000004656</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000046567</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>26.57379858938952</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -2350,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-2.053555192560452e-08</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -2385,25 +1893,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>118.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4977655328937</v>
+        <v>2495.264953679047</v>
       </c>
       <c r="L3" t="n">
-        <v>153.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5202</v>
       </c>
       <c r="O3" t="n">
-        <v>19.60000000000002</v>
+        <v>3733.988999954966</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2427,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>7.811468094587326e-08</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -2456,13 +1964,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2293.034999955447</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4575.719999998732</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5202</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -2471,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6000000011409</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3.222734761433772e-09</v>
       </c>
       <c r="N4" t="n">
-        <v>80.18312416993331</v>
+        <v>1723.198454540089</v>
       </c>
       <c r="O4" t="n">
-        <v>19.59999999999997</v>
+        <v>3020.592</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2510,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>6.909249350428581e-08</v>
       </c>
     </row>
   </sheetData>
@@ -2611,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>1089.109999999973</v>
       </c>
       <c r="C2" t="n">
-        <v>19.50000000004657</v>
+        <v>1068.526000001395</v>
       </c>
       <c r="D2" t="n">
-        <v>12.99999999995343</v>
+        <v>939.410000000006</v>
       </c>
       <c r="E2" t="n">
-        <v>12.99999999995343</v>
+        <v>996.17</v>
       </c>
       <c r="F2" t="n">
-        <v>12.99999999995343</v>
+        <v>855.2300000000058</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.526555130723864e-09</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2650,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>289.751999996845</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1138.467999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1033.910000003598</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1019.060000000532</v>
       </c>
       <c r="S2" t="n">
-        <v>41.59999999974389</v>
+        <v>1021.610000002473</v>
       </c>
       <c r="T2" t="n">
-        <v>88.40000000000001</v>
+        <v>1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>117.0000000000466</v>
+        <v>1256.8</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>1224.35</v>
       </c>
       <c r="W2" t="n">
-        <v>77.99999999995343</v>
+        <v>1175.589999985446</v>
       </c>
       <c r="X2" t="n">
-        <v>52.00000000004657</v>
+        <v>1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.99999999997672</v>
+        <v>942.0600000005015</v>
       </c>
     </row>
     <row r="3">
@@ -2688,22 +2196,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>19.50000000004657</v>
+        <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99999999995343</v>
+        <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>284.3200000012089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2733,31 +2241,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>158.8359999776734</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>887.716</v>
       </c>
       <c r="S3" t="n">
-        <v>62.39999999881252</v>
+        <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>77.99999999995343</v>
+        <v>1129.800000076193</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.99999999997672</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
@@ -2765,22 +2273,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>19.50000000004657</v>
+        <v>1086.219999999942</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>356.7399999997278</v>
       </c>
       <c r="G4" t="n">
-        <v>19.50000000004657</v>
+        <v>-4.226647137734108e-08</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2810,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1258.220000000507</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1207.9</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1429.245999999986</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1498.259999999767</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1334.05</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.99999999997672</v>
+        <v>1175.610000069582</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2443,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.8909090908151</v>
+        <v>8059.91919191452</v>
       </c>
       <c r="C2" t="n">
-        <v>192.1939393937983</v>
+        <v>6980.599999996805</v>
       </c>
       <c r="D2" t="n">
-        <v>179.0626262625322</v>
+        <v>6031.701010100174</v>
       </c>
       <c r="E2" t="n">
-        <v>165.9313131312661</v>
+        <v>5025.468686867851</v>
       </c>
       <c r="F2" t="n">
-        <v>152.8</v>
+        <v>4161.6</v>
       </c>
       <c r="G2" t="n">
-        <v>152.8</v>
+        <v>4161.6</v>
       </c>
       <c r="H2" t="n">
-        <v>152.8</v>
+        <v>5431.619520006027</v>
       </c>
       <c r="I2" t="n">
-        <v>152.8</v>
+        <v>8067.286619996227</v>
       </c>
       <c r="J2" t="n">
-        <v>152.8</v>
+        <v>11527.34256</v>
       </c>
       <c r="K2" t="n">
-        <v>152.8</v>
+        <v>14989.73588999824</v>
       </c>
       <c r="L2" t="n">
-        <v>266.0560000006454</v>
+        <v>17980.47980999983</v>
       </c>
       <c r="M2" t="n">
-        <v>393.4690000013139</v>
+        <v>20008.01267999848</v>
       </c>
       <c r="N2" t="n">
-        <v>535.0390000013139</v>
+        <v>20807.99999999615</v>
       </c>
       <c r="O2" t="n">
-        <v>643.1470000017748</v>
+        <v>20515.32121211884</v>
       </c>
       <c r="P2" t="n">
-        <v>737.0980000022358</v>
+        <v>19365.35353535359</v>
       </c>
       <c r="Q2" t="n">
-        <v>763.4060606057315</v>
+        <v>18320.99999999792</v>
       </c>
       <c r="R2" t="n">
-        <v>763.4060606057315</v>
+        <v>17291.64646464236</v>
       </c>
       <c r="S2" t="n">
-        <v>721.3858585857881</v>
+        <v>16259.71717170908</v>
       </c>
       <c r="T2" t="n">
-        <v>632.0929292928588</v>
+        <v>14956.92929291921</v>
       </c>
       <c r="U2" t="n">
-        <v>513.9111111109936</v>
+        <v>13687.43434342272</v>
       </c>
       <c r="V2" t="n">
-        <v>415.4262626261451</v>
+        <v>12450.7171717124</v>
       </c>
       <c r="W2" t="n">
-        <v>336.6383838383134</v>
+        <v>11263.25252524212</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1131313130138</v>
+        <v>10111.60606059717</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.7191919190979</v>
+        <v>9160.030303024098</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2520,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>418.6464646477349</v>
+        <v>6018.99393939394</v>
       </c>
       <c r="C3" t="n">
-        <v>398.9494949507181</v>
+        <v>5199.802020202021</v>
       </c>
       <c r="D3" t="n">
-        <v>385.818181819452</v>
+        <v>4448.79191919192</v>
       </c>
       <c r="E3" t="n">
-        <v>385.818181819452</v>
+        <v>4161.6</v>
       </c>
       <c r="F3" t="n">
-        <v>385.818181819452</v>
+        <v>4161.6</v>
       </c>
       <c r="G3" t="n">
-        <v>366.1212121224353</v>
+        <v>4161.6</v>
       </c>
       <c r="H3" t="n">
-        <v>366.1212121224353</v>
+        <v>4161.6</v>
       </c>
       <c r="I3" t="n">
-        <v>370.0812121224353</v>
+        <v>4161.6</v>
       </c>
       <c r="J3" t="n">
-        <v>487.6932121224353</v>
+        <v>4161.6</v>
       </c>
       <c r="K3" t="n">
-        <v>593.1260000000001</v>
+        <v>6631.912304141415</v>
       </c>
       <c r="L3" t="n">
-        <v>744.5960000000001</v>
+        <v>6631.912304141415</v>
       </c>
       <c r="M3" t="n">
-        <v>744.5960000000001</v>
+        <v>6631.912304141415</v>
       </c>
       <c r="N3" t="n">
-        <v>744.5960000000001</v>
+        <v>11781.89230416487</v>
       </c>
       <c r="O3" t="n">
-        <v>764.0000000000001</v>
+        <v>15478.54141412362</v>
       </c>
       <c r="P3" t="n">
-        <v>764.0000000000001</v>
+        <v>15478.54141412513</v>
       </c>
       <c r="Q3" t="n">
-        <v>764.0000000000001</v>
+        <v>15318.1010101091</v>
       </c>
       <c r="R3" t="n">
-        <v>764.0000000000001</v>
+        <v>14421.41818180823</v>
       </c>
       <c r="S3" t="n">
-        <v>700.9696969708966</v>
+        <v>13461.01414140653</v>
       </c>
       <c r="T3" t="n">
-        <v>569.6565656577653</v>
+        <v>12346.36767676241</v>
       </c>
       <c r="U3" t="n">
-        <v>569.6565656577653</v>
+        <v>11135.76161615895</v>
       </c>
       <c r="V3" t="n">
-        <v>569.6565656577653</v>
+        <v>9950.913131313133</v>
       </c>
       <c r="W3" t="n">
-        <v>490.8686868699336</v>
+        <v>8809.701010096067</v>
       </c>
       <c r="X3" t="n">
-        <v>490.8686868699336</v>
+        <v>7822.32727272233</v>
       </c>
       <c r="Y3" t="n">
-        <v>451.4747474760177</v>
+        <v>6907.175757573181</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2597,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>192.1939393940335</v>
+        <v>7627.701010084404</v>
       </c>
       <c r="C4" t="n">
-        <v>172.4969696970168</v>
+        <v>6530.509090891063</v>
       </c>
       <c r="D4" t="n">
-        <v>172.4969696970168</v>
+        <v>5498.690909090911</v>
       </c>
       <c r="E4" t="n">
-        <v>172.4969696970168</v>
+        <v>4521.943434343437</v>
       </c>
       <c r="F4" t="n">
-        <v>172.4969696970168</v>
+        <v>4161.6</v>
       </c>
       <c r="G4" t="n">
-        <v>152.8</v>
+        <v>6431.704649999765</v>
       </c>
       <c r="H4" t="n">
-        <v>152.8</v>
+        <v>10961.66745</v>
       </c>
       <c r="I4" t="n">
-        <v>152.8</v>
+        <v>16111.64745</v>
       </c>
       <c r="J4" t="n">
-        <v>152.8</v>
+        <v>16111.64744999853</v>
       </c>
       <c r="K4" t="n">
-        <v>152.8</v>
+        <v>16111.64744999703</v>
       </c>
       <c r="L4" t="n">
-        <v>296.9440000011295</v>
+        <v>16111.64745</v>
       </c>
       <c r="M4" t="n">
-        <v>296.9440000011296</v>
+        <v>16111.64745000319</v>
       </c>
       <c r="N4" t="n">
-        <v>376.3252929293635</v>
+        <v>17817.61392</v>
       </c>
       <c r="O4" t="n">
-        <v>395.7292929293635</v>
+        <v>20808</v>
       </c>
       <c r="P4" t="n">
-        <v>395.7292929293635</v>
+        <v>20808</v>
       </c>
       <c r="Q4" t="n">
-        <v>395.7292929293635</v>
+        <v>19531.89898989899</v>
       </c>
       <c r="R4" t="n">
-        <v>395.7292929293635</v>
+        <v>18260.96969696772</v>
       </c>
       <c r="S4" t="n">
-        <v>395.7292929293635</v>
+        <v>17040.86868686475</v>
       </c>
       <c r="T4" t="n">
-        <v>264.4161616162322</v>
+        <v>15601.88888888346</v>
       </c>
       <c r="U4" t="n">
-        <v>264.4161616162322</v>
+        <v>14158.20606059914</v>
       </c>
       <c r="V4" t="n">
-        <v>264.4161616162322</v>
+        <v>12644.81212120391</v>
       </c>
       <c r="W4" t="n">
-        <v>264.4161616162322</v>
+        <v>11297.28686867713</v>
       </c>
       <c r="X4" t="n">
-        <v>264.4161616162322</v>
+        <v>9977.155555544297</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.0222222223163</v>
+        <v>8789.670707056048</v>
       </c>
     </row>
     <row r="5">
@@ -6832,40 +6340,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>10.40000000000003</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8000000002794</v>
+        <v>44.62345454516571</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4000000002561</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2000000001863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>98.60000000020955</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.97379858938955</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -6909,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.570232027210296e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -6918,28 +6426,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>98.49776553289378</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -7001,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>80.18312416993331</v>
+        <v>1.350144884781912e-09</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -7156,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -7171,19 +6679,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.200000000186265</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.100000000209548</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.800000000279397</v>
+        <v>4.800000001524666</v>
       </c>
       <c r="P2" t="n">
-        <v>6.900000000256114</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -7192,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.400000000256114</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -7227,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.000000003376044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -7239,13 +6747,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -7263,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>11.6000000013737</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4000000011874363</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -7322,10 +6830,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.970238657923729e-09</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -7378,7 +6886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7387,77 +6895,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -7465,230 +6926,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3374980.746955014</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>416374.2984663162</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>198255</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15.59999999999997</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.20000000018626</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.60000000020955</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.39999999999998</v>
-      </c>
-      <c r="P2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>15.59999999999997</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>16.79999999999998</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>19.59999999999998</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19.60000000114087</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19.59999999999998</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
+        <v>710829.8481976035</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 13.xlsx
+++ b/model/Output Files/Year 13.xlsx
@@ -15,10 +15,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,22 +524,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="C2" t="n">
-        <v>67.73400000000279</v>
+        <v>111</v>
       </c>
       <c r="D2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="G2" t="n">
-        <v>115.7579999984714</v>
+        <v>111</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -562,37 +563,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.3999999954217</v>
+        <v>73.00364438952738</v>
       </c>
       <c r="R2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="S2" t="n">
-        <v>122.3999999971782</v>
+        <v>111</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>111.0000000018008</v>
       </c>
       <c r="U2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="V2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="W2" t="n">
-        <v>122.399999994018</v>
+        <v>111</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -615,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.570232027210296e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -663,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.921762304846198e-09</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -680,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D4" t="n">
-        <v>1.977298325073207e-08</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -704,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.970287730455791e-09</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -722,31 +723,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>84.02300000217065</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>61.20999999999185</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>55.50999999999476</v>
       </c>
       <c r="U4" t="n">
-        <v>91.73400000001448</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>122.4</v>
+        <v>55.50999999783522</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.20999999999185</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -755,6 +756,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3384555.153768412</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>430090.0481151047</v>
+      </c>
+      <c r="E2" t="n">
+        <v>182735</v>
+      </c>
+      <c r="F2" t="n">
+        <v>713760.014626027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -795,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -811,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11211</v>
+        <v>10198</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -827,10 +894,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5202</v>
+        <v>5213</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -838,13 +905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,16 +1036,16 @@
         <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="H3" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="I3" t="n">
         <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
         <v>510</v>
@@ -1019,16 +1086,16 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>40</v>
@@ -1047,6 +1114,56 @@
       </c>
       <c r="P4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1156,43 +1273,43 @@
         <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-996.17</v>
+        <v>-1031.17</v>
       </c>
       <c r="F2" t="n">
         <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>-866.895</v>
+        <v>-858.895</v>
       </c>
       <c r="H2" t="n">
-        <v>-775.78</v>
+        <v>-752.78</v>
       </c>
       <c r="I2" t="n">
-        <v>-566.6700000000001</v>
+        <v>-528.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-390.5800000000002</v>
+        <v>-343.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>-468.3050000000001</v>
+        <v>-420.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>-559.8699999999999</v>
+        <v>-516.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>-699.625</v>
+        <v>-667.625</v>
       </c>
       <c r="N2" t="n">
-        <v>-920.71</v>
+        <v>-901.71</v>
       </c>
       <c r="O2" t="n">
-        <v>-1118.445</v>
+        <v>-1111.445</v>
       </c>
       <c r="P2" t="n">
         <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1156.31</v>
+        <v>-1191.31</v>
       </c>
       <c r="R2" t="n">
         <v>-1141.46</v>
@@ -1233,43 +1350,43 @@
         <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-620.6500000000001</v>
+        <v>-651.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-335.1400000000001</v>
+        <v>-316.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>27.27000000000005</v>
+        <v>69.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>193.87</v>
+        <v>254.87</v>
       </c>
       <c r="I3" t="n">
-        <v>379.3449999999998</v>
+        <v>454.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>534.7799999999999</v>
+        <v>618.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>483.6749999999999</v>
+        <v>570.675</v>
       </c>
       <c r="L3" t="n">
-        <v>452.2999999999998</v>
+        <v>538.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>367.57</v>
+        <v>445.57</v>
       </c>
       <c r="N3" t="n">
-        <v>149.0700000000001</v>
+        <v>215.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>-161.885</v>
+        <v>-112.885</v>
       </c>
       <c r="P3" t="n">
-        <v>-461.76</v>
+        <v>-434.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>-820.285</v>
+        <v>-847.285</v>
       </c>
       <c r="R3" t="n">
         <v>-932.5600000000001</v>
@@ -1310,43 +1427,43 @@
         <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-966.9799999999999</v>
+        <v>-1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>-861.235</v>
+        <v>-856.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-428.7049999999999</v>
+        <v>-396.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-144.71</v>
+        <v>-85.70999999999998</v>
       </c>
       <c r="I4" t="n">
-        <v>96.98000000000013</v>
+        <v>172.9800000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>278.04</v>
+        <v>364.04</v>
       </c>
       <c r="K4" t="n">
-        <v>230.71</v>
+        <v>320.71</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8149999999999</v>
+        <v>275.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>79.84499999999994</v>
+        <v>158.8449999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>-180.765</v>
+        <v>-115.765</v>
       </c>
       <c r="O4" t="n">
-        <v>-573.1600000000001</v>
+        <v>-530.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>-991.62</v>
+        <v>-976.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1263.34</v>
+        <v>-1298.34</v>
       </c>
       <c r="R4" t="n">
         <v>-1258.22</v>
@@ -1486,34 +1603,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>751.1370000000293</v>
+        <v>683.2660000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2107.668000000117</v>
+        <v>1917.224</v>
       </c>
       <c r="I2" t="n">
-        <v>3475.409999990102</v>
+        <v>3161.380000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>4327.445999999883</v>
+        <v>3936.428000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>4450.767</v>
+        <v>4048.606000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>3923.85</v>
+        <v>3569.3</v>
       </c>
       <c r="M2" t="n">
-        <v>2948.493000000117</v>
+        <v>2682.074000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>1771.338000000059</v>
+        <v>1611.284000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>706.2930000000283</v>
+        <v>642.4740000000002</v>
       </c>
       <c r="P2" t="n">
-        <v>22.42200000000091</v>
+        <v>20.39599999998622</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1557,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>336.3300000000146</v>
+        <v>305.9400000000001</v>
       </c>
       <c r="F3" t="n">
         <v>462</v>
@@ -1572,10 +1689,10 @@
         <v>646.8</v>
       </c>
       <c r="J3" t="n">
-        <v>672</v>
+        <v>5874.885412913606</v>
       </c>
       <c r="K3" t="n">
-        <v>3293.264953680773</v>
+        <v>798</v>
       </c>
       <c r="L3" t="n">
         <v>798</v>
@@ -1584,19 +1701,19 @@
         <v>756</v>
       </c>
       <c r="N3" t="n">
-        <v>5958</v>
+        <v>5527.316000000002</v>
       </c>
       <c r="O3" t="n">
-        <v>4473.188999954966</v>
+        <v>739.2000000015784</v>
       </c>
       <c r="P3" t="n">
-        <v>672</v>
+        <v>2284.352</v>
       </c>
       <c r="Q3" t="n">
-        <v>661.4490000242547</v>
+        <v>601.6820000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>44.84400000000183</v>
+        <v>40.79200000000001</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1637,34 +1754,34 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>504.4950000000147</v>
+        <v>458.9100000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>2970.914999999714</v>
+        <v>2702.470000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>5381.279999998733</v>
+        <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>6026.040000000217</v>
+        <v>5218.7025252525</v>
       </c>
       <c r="J4" t="n">
-        <v>850.9200000000001</v>
+        <v>6063.920000000001</v>
       </c>
       <c r="K4" t="n">
         <v>978.6</v>
       </c>
       <c r="L4" t="n">
-        <v>980.2800000000001</v>
+        <v>6193.280000000002</v>
       </c>
       <c r="M4" t="n">
-        <v>939.120000003223</v>
+        <v>939.1200000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>2663.998454542237</v>
+        <v>940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>3946.272</v>
+        <v>925.6800000000001</v>
       </c>
       <c r="P4" t="n">
         <v>1018.26</v>
@@ -1798,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.396983861923218e-09</v>
+        <v>2.92969266936678e-09</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1813,25 +1930,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1282.848000000117</v>
+        <v>1164.443999998463</v>
       </c>
       <c r="I2" t="n">
-        <v>2662.289999990102</v>
+        <v>2632.710000003213</v>
       </c>
       <c r="J2" t="n">
-        <v>3495.005999999637</v>
+        <v>3592.848000000248</v>
       </c>
       <c r="K2" t="n">
-        <v>3497.367</v>
+        <v>3628.301000002076</v>
       </c>
       <c r="L2" t="n">
-        <v>3020.953454545283</v>
+        <v>3052.429999998948</v>
       </c>
       <c r="M2" t="n">
-        <v>2048.013000000117</v>
+        <v>2014.449</v>
       </c>
       <c r="N2" t="n">
-        <v>808.0680000000585</v>
+        <v>709.5740000000001</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1843,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-2.688029780983925e-07</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1858,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.053555192560452e-08</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1872,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-6.728805601596832e-08</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1896,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5202.885412913605</v>
       </c>
       <c r="K3" t="n">
-        <v>2495.264953679047</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1908,13 +2025,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5202</v>
+        <v>4771.316000000002</v>
       </c>
       <c r="O3" t="n">
-        <v>3733.988999954966</v>
+        <v>1.57829484610696e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1612.352</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1935,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>7.811468094587326e-08</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -1949,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-3.998866304755211e-08</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1964,31 +2081,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2293.034999955447</v>
+        <v>2024.590000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>4575.719999998732</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5202</v>
+        <v>4394.662525251257</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5213</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5213</v>
       </c>
       <c r="M4" t="n">
-        <v>3.222734761433772e-09</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1723.198454540089</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3020.592</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2018,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.909249350428581e-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2119,22 +2236,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1089.109999999973</v>
+        <v>1100.51</v>
       </c>
       <c r="C2" t="n">
-        <v>1068.526000001395</v>
+        <v>1025.260000002871</v>
       </c>
       <c r="D2" t="n">
-        <v>939.410000000006</v>
+        <v>950.8100000004134</v>
       </c>
       <c r="E2" t="n">
-        <v>996.17</v>
+        <v>920.17</v>
       </c>
       <c r="F2" t="n">
-        <v>855.2300000000058</v>
+        <v>866.63</v>
       </c>
       <c r="G2" t="n">
-        <v>4.526555130723864e-09</v>
+        <v>64.62899999850046</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2158,37 +2275,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>289.751999996845</v>
+        <v>357.9709999969267</v>
       </c>
       <c r="P2" t="n">
-        <v>1138.467999999999</v>
+        <v>1029.494000000027</v>
       </c>
       <c r="Q2" t="n">
-        <v>1033.910000003598</v>
+        <v>1118.306355611068</v>
       </c>
       <c r="R2" t="n">
-        <v>1019.060000000532</v>
+        <v>1030.459999733672</v>
       </c>
       <c r="S2" t="n">
-        <v>1021.610000002473</v>
+        <v>1033.010000000431</v>
       </c>
       <c r="T2" t="n">
-        <v>1289.76</v>
+        <v>1178.759999998795</v>
       </c>
       <c r="U2" t="n">
-        <v>1256.8</v>
+        <v>1268.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1224.35</v>
+        <v>1235.75</v>
       </c>
       <c r="W2" t="n">
-        <v>1175.589999985446</v>
+        <v>1186.99</v>
       </c>
       <c r="X2" t="n">
-        <v>1140.13</v>
+        <v>1140.130000000481</v>
       </c>
       <c r="Y2" t="n">
-        <v>942.0600000005015</v>
+        <v>953.46</v>
       </c>
     </row>
     <row r="3">
@@ -2196,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>879.3</v>
+        <v>879.2999999360137</v>
       </c>
       <c r="C3" t="n">
         <v>811</v>
@@ -2205,7 +2322,7 @@
         <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>284.3200000012089</v>
+        <v>345.709999996624</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2241,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.8359999776734</v>
+        <v>245.603</v>
       </c>
       <c r="R3" t="n">
-        <v>887.716</v>
+        <v>891.768</v>
       </c>
       <c r="S3" t="n">
         <v>950.8</v>
@@ -2259,7 +2376,7 @@
         <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>1129.800000076193</v>
+        <v>1129.8</v>
       </c>
       <c r="X3" t="n">
         <v>977.5</v>
@@ -2273,22 +2390,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1150.35</v>
+        <v>1150.349999963311</v>
       </c>
       <c r="C4" t="n">
-        <v>1086.219999999942</v>
+        <v>975.2199999999996</v>
       </c>
       <c r="D4" t="n">
         <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>966.9799999999999</v>
+        <v>1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>356.7399999997278</v>
+        <v>286.3250000007956</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.226647137734108e-08</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2318,31 +2435,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1263.34</v>
+        <v>1214.316999998455</v>
       </c>
       <c r="R4" t="n">
-        <v>1258.220000000507</v>
+        <v>1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>1207.9</v>
+        <v>1269.110000005844</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.59</v>
+        <v>1369.080000000451</v>
       </c>
       <c r="U4" t="n">
-        <v>1429.245999999986</v>
+        <v>1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1498.259999999767</v>
+        <v>1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>1334.05</v>
+        <v>1400.940000002165</v>
       </c>
       <c r="X4" t="n">
         <v>1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.610000069582</v>
+        <v>1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -2443,76 +2560,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8059.91919191452</v>
+        <v>8036.560606059093</v>
       </c>
       <c r="C2" t="n">
-        <v>6980.599999996805</v>
+        <v>7000.944444442931</v>
       </c>
       <c r="D2" t="n">
-        <v>6031.701010100174</v>
+        <v>6040.530303030874</v>
       </c>
       <c r="E2" t="n">
-        <v>5025.468686867851</v>
+        <v>5111.065656565801</v>
       </c>
       <c r="F2" t="n">
-        <v>4161.6</v>
+        <v>4235.681818180305</v>
       </c>
       <c r="G2" t="n">
-        <v>4161.6</v>
+        <v>4170.4</v>
       </c>
       <c r="H2" t="n">
-        <v>5431.619520006027</v>
+        <v>5323.199559998478</v>
       </c>
       <c r="I2" t="n">
-        <v>8067.286619996227</v>
+        <v>7929.582460001659</v>
       </c>
       <c r="J2" t="n">
-        <v>11527.34256</v>
+        <v>11486.5019800019</v>
       </c>
       <c r="K2" t="n">
-        <v>14989.73588999824</v>
+        <v>15078.51997000396</v>
       </c>
       <c r="L2" t="n">
-        <v>17980.47980999983</v>
+        <v>18100.4256700042</v>
       </c>
       <c r="M2" t="n">
-        <v>20008.01267999848</v>
+        <v>20094.7301800042</v>
       </c>
       <c r="N2" t="n">
-        <v>20807.99999999615</v>
+        <v>20797.2084400042</v>
       </c>
       <c r="O2" t="n">
-        <v>20515.32121211884</v>
+        <v>20435.62157132043</v>
       </c>
       <c r="P2" t="n">
-        <v>19365.35353535359</v>
+        <v>19395.72864202748</v>
       </c>
       <c r="Q2" t="n">
-        <v>18320.99999999792</v>
+        <v>18266.12626262071</v>
       </c>
       <c r="R2" t="n">
-        <v>17291.64646464236</v>
+        <v>17225.25757575742</v>
       </c>
       <c r="S2" t="n">
-        <v>16259.71717170908</v>
+        <v>16181.81313131254</v>
       </c>
       <c r="T2" t="n">
-        <v>14956.92929291921</v>
+        <v>14991.14646464709</v>
       </c>
       <c r="U2" t="n">
-        <v>13687.43434342272</v>
+        <v>13710.13636363699</v>
       </c>
       <c r="V2" t="n">
-        <v>12450.7171717124</v>
+        <v>12461.90404040467</v>
       </c>
       <c r="W2" t="n">
-        <v>11263.25252524212</v>
+        <v>11262.92424242487</v>
       </c>
       <c r="X2" t="n">
-        <v>10111.60606059717</v>
+        <v>10111.27777777627</v>
       </c>
       <c r="Y2" t="n">
-        <v>9160.030303024098</v>
+        <v>9148.186868685356</v>
       </c>
     </row>
     <row r="3">
@@ -2520,76 +2637,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6018.99393939394</v>
+        <v>11300.71616161616</v>
       </c>
       <c r="C3" t="n">
-        <v>5199.802020202021</v>
+        <v>10481.52424242424</v>
       </c>
       <c r="D3" t="n">
-        <v>4448.79191919192</v>
+        <v>9730.514141414144</v>
       </c>
       <c r="E3" t="n">
-        <v>4161.6</v>
+        <v>9381.312121215533</v>
       </c>
       <c r="F3" t="n">
-        <v>4161.6</v>
+        <v>9381.312121215533</v>
       </c>
       <c r="G3" t="n">
-        <v>4161.6</v>
+        <v>9381.312121215533</v>
       </c>
       <c r="H3" t="n">
-        <v>4161.6</v>
+        <v>9381.312121215533</v>
       </c>
       <c r="I3" t="n">
-        <v>4161.6</v>
+        <v>9381.312121215533</v>
       </c>
       <c r="J3" t="n">
-        <v>4161.6</v>
+        <v>14532.16868</v>
       </c>
       <c r="K3" t="n">
-        <v>6631.912304141415</v>
+        <v>14532.16868</v>
       </c>
       <c r="L3" t="n">
-        <v>6631.912304141415</v>
+        <v>14532.16868</v>
       </c>
       <c r="M3" t="n">
-        <v>6631.912304141415</v>
+        <v>14532.16867999844</v>
       </c>
       <c r="N3" t="n">
-        <v>11781.89230416487</v>
+        <v>19255.77151999844</v>
       </c>
       <c r="O3" t="n">
-        <v>15478.54141412362</v>
+        <v>19255.77152</v>
       </c>
       <c r="P3" t="n">
-        <v>15478.54141412513</v>
+        <v>20852</v>
       </c>
       <c r="Q3" t="n">
-        <v>15318.1010101091</v>
+        <v>20603.91616161424</v>
       </c>
       <c r="R3" t="n">
-        <v>14421.41818180823</v>
+        <v>19703.1404040404</v>
       </c>
       <c r="S3" t="n">
-        <v>13461.01414140653</v>
+        <v>18742.73636363637</v>
       </c>
       <c r="T3" t="n">
-        <v>12346.36767676241</v>
+        <v>17628.0898989899</v>
       </c>
       <c r="U3" t="n">
-        <v>11135.76161615895</v>
+        <v>16417.48383838384</v>
       </c>
       <c r="V3" t="n">
-        <v>9950.913131313133</v>
+        <v>15232.63535353536</v>
       </c>
       <c r="W3" t="n">
-        <v>8809.701010096067</v>
+        <v>14091.42323232188</v>
       </c>
       <c r="X3" t="n">
-        <v>7822.32727272233</v>
+        <v>13104.04949494815</v>
       </c>
       <c r="Y3" t="n">
-        <v>6907.175757573181</v>
+        <v>12188.89797979663</v>
       </c>
     </row>
     <row r="4">
@@ -2597,76 +2714,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7627.701010084404</v>
+        <v>7493.407070707874</v>
       </c>
       <c r="C4" t="n">
-        <v>6530.509090891063</v>
+        <v>6508.336363637167</v>
       </c>
       <c r="D4" t="n">
-        <v>5498.690909090911</v>
+        <v>5476.518181818985</v>
       </c>
       <c r="E4" t="n">
-        <v>4521.943434343437</v>
+        <v>4464.417171717975</v>
       </c>
       <c r="F4" t="n">
-        <v>4161.6</v>
+        <v>4175.2</v>
       </c>
       <c r="G4" t="n">
-        <v>6431.704649999765</v>
+        <v>6179.5441</v>
       </c>
       <c r="H4" t="n">
-        <v>10961.66745</v>
+        <v>6179.5441</v>
       </c>
       <c r="I4" t="n">
-        <v>16111.64745</v>
+        <v>10530.26</v>
       </c>
       <c r="J4" t="n">
-        <v>16111.64744999853</v>
+        <v>15691.13</v>
       </c>
       <c r="K4" t="n">
-        <v>16111.64744999703</v>
+        <v>15691.13</v>
       </c>
       <c r="L4" t="n">
-        <v>16111.64745</v>
+        <v>20852</v>
       </c>
       <c r="M4" t="n">
-        <v>16111.64745000319</v>
+        <v>20851.99999999541</v>
       </c>
       <c r="N4" t="n">
-        <v>17817.61392</v>
+        <v>20851.99999999669</v>
       </c>
       <c r="O4" t="n">
-        <v>20808</v>
+        <v>20852</v>
       </c>
       <c r="P4" t="n">
-        <v>20808</v>
+        <v>20852</v>
       </c>
       <c r="Q4" t="n">
-        <v>19531.89898989899</v>
+        <v>19625.41717171709</v>
       </c>
       <c r="R4" t="n">
-        <v>18260.96969696772</v>
+        <v>18354.48787878564</v>
       </c>
       <c r="S4" t="n">
-        <v>17040.86868686475</v>
+        <v>17072.55858586078</v>
       </c>
       <c r="T4" t="n">
-        <v>15601.88888888346</v>
+        <v>15689.64949495168</v>
       </c>
       <c r="U4" t="n">
-        <v>14158.20606059914</v>
+        <v>14153.30606060825</v>
       </c>
       <c r="V4" t="n">
-        <v>12644.81212120391</v>
+        <v>12639.91212121215</v>
       </c>
       <c r="W4" t="n">
-        <v>11297.28686867713</v>
+        <v>11224.82121212121</v>
       </c>
       <c r="X4" t="n">
-        <v>9977.155555544297</v>
+        <v>9904.689898989898</v>
       </c>
       <c r="Y4" t="n">
-        <v>8789.670707056048</v>
+        <v>8655.376767676767</v>
       </c>
     </row>
     <row r="5">
@@ -6346,19 +6463,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>146.3700000011595</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>311.1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>349.0950000020748</v>
       </c>
       <c r="L2" t="n">
-        <v>44.62345454516571</v>
+        <v>268.77</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>116.5349999979558</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -6417,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.570232027210296e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -6515,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.350144884781912e-09</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -6667,28 +6784,28 @@
         <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.03999999846292</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>100.0800000020536</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>130.7600000002421</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>118.8800000002375</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>84.32000000204425</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42.56000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>4.800000001524666</v>
+        <v>4.800000003073364</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -6830,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.970238657923729e-09</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -6886,7 +7003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,30 +7012,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -6926,19 +7090,230 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3374980.746955014</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>416374.2984663162</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>198255</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>710829.8481976035</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.91149589535038e-09</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
